--- a/assets/data/Testeos.xlsx
+++ b/assets/data/Testeos.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Testeos_Humanos" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Testeos_Ambientales" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Testeos_Animales" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="1070">
   <si>
     <t xml:space="preserve">LOCALIDAD/POBLADO</t>
   </si>
@@ -2885,6 +2886,364 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;0.001 (µg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insecticidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbicidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fungicidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVINCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUNICIPIO/DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCALIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÁREA GEOGRAFICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANÁLISIS EFECTUADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cipermetrina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambda-Cialotrina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prometrina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glufosinato de amonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piraclostrobina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1 - Musculos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Justo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puente sobre Río Salado (San Justo) - S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZONA RURAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residuos de plaguicidas detectados en músculo  de peces (Sabalos) expresados en microgramo por kilogramo de tejido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-------------------&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25 ± 9.60 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 ± 6.55 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.66 ± 2.88
+(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66 ± 2.88 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">723.6 ± 312.67(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66 ± 15.01 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dato recuperado del articulo: Lajmanovich, R. et al. (2023). Cocktails of pesticide residues in Prochilodus lineatus fish of the Salado River (South America): First record of high concentrations of polar herbicides. Science of the Total Environment 870 (2023) 162019. Laboratorio de Ecotoxicología, Facultad de Bioquímica y Ciencias Biológicas, Universidad Nacional del Litoral, Santa Fe, Argentina. http://dx.doi.org/10.1016/j.scitotenv.2023.162019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1 - Visceras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residuos de plaguicidas detectados en vísceras de peces (Sabalos) expresados en microgramo por kilogramo de tejido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 ± 31.17 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 ± 10.39(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 ± 6.92 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 ± 17.32(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5±0(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212 ± 79(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2 - Musculos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Fe (cap)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recreo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villa Georgina - S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.75 ± 94.92 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5 ± 24.47   (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.25 ± 25.94  (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 ± 28.35 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 ± 0 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1692.7 ± 1052.3 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25 ± 2.5 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5 ± 13 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2 - Visceras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.5 ± 235.74  (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5 ± 33.07 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.75 ± 35.22 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 ±10(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75 ± 2.5(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1463.2 ± 369(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3 - Musculos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Río Salado cercanía country Los Molinos - S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZONA URBANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33 ± 9.23 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66 ± 2.88 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.33 ± 23.09(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33 ± 9.24(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5± 0(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">882.33 ± 94.36(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66 ± 2.89(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 ± 12.49(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3 - Visceras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.33 ± 77.82 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66 ± 7.57 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33 ± 12.09 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33 ± 12.7(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33 ± 2.89(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">662.33 ± 393.2(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4 - Musculos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Tome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playa Santo Tome - S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91 ± 84(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555.6 ± 143.60(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">292.6 ± 333.04(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33 ± 16.16(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dato recuperado del articulo: Lajmanovich, R. et al. (2023). Cocktails of pesticide residues in Prochilodus lineatus fish of the Salado River (South America): First record of high concentrations of polar herbicides. Science of the Total Environment 870 (2023) 162019. Laboratorio de Ecotoxicología, Facultad de Bioquímica y Ciencias Biológicas, Universidad Nacional del Litoral, Santa Fe, Argentina. http://dx.doi.org/10.1016/j.scitotenv.2023.162025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4 - Visceras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 ±0(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238.66 ± 66.36(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 ± 29.51(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dato recuperado del articulo: Lajmanovich, R. et al. (2023). Cocktails of pesticide residues in Prochilodus lineatus fish of the Salado River (South America): First record of high concentrations of polar herbicides. Science of the Total Environment 870 (2023) 162019. Laboratorio de Ecotoxicología, Facultad de Bioquímica y Ciencias Biológicas, Universidad Nacional del Litoral, Santa Fe, Argentina. http://dx.doi.org/10.1016/j.scitotenv.2023.162026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S5 - Musculos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confluencia Río Salado y Río Santa Fe - S5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">920 ± 534.56(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66 ± 2.89(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.66 ± 28.87 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dato recuperado del articulo: Lajmanovich, R. et al. (2023). Cocktails of pesticide residues in Prochilodus lineatus fish of the Salado River (South America): First record of high concentrations of polar herbicides. Science of the Total Environment 870 (2023) 162019. Laboratorio de Ecotoxicología, Facultad de Bioquímica y Ciencias Biológicas, Universidad Nacional del Litoral, Santa Fe, Argentina. http://dx.doi.org/10.1016/j.scitotenv.2023.162027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S5 - Visceras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.33 ± 78.5(μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.33 ± 23.09 (μg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dato recuperado del articulo: Lajmanovich, R. et al. (2023). Cocktails of pesticide residues in Prochilodus lineatus fish of the Salado River (South America): First record of high concentrations of polar herbicides. Science of the Total Environment 870 (2023) 162019. Laboratorio de Ecotoxicología, Facultad de Bioquímica y Ciencias Biológicas, Universidad Nacional del Litoral, Santa Fe, Argentina. http://dx.doi.org/10.1016/j.scitotenv.2023.162028</t>
   </si>
 </sst>
 </file>
@@ -43319,4 +43678,740 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F1" t="s">
+        <v>956</v>
+      </c>
+      <c r="G1" t="s">
+        <v>957</v>
+      </c>
+      <c r="H1" t="s">
+        <v>958</v>
+      </c>
+      <c r="I1" t="s">
+        <v>959</v>
+      </c>
+      <c r="J1" t="s">
+        <v>960</v>
+      </c>
+      <c r="K1" t="s">
+        <v>961</v>
+      </c>
+      <c r="L1" t="s">
+        <v>962</v>
+      </c>
+      <c r="M1" t="s">
+        <v>963</v>
+      </c>
+      <c r="N1" t="s">
+        <v>964</v>
+      </c>
+      <c r="O1" t="s">
+        <v>965</v>
+      </c>
+      <c r="P1" t="s">
+        <v>966</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>967</v>
+      </c>
+      <c r="R1" t="s">
+        <v>968</v>
+      </c>
+      <c r="S1" t="s">
+        <v>969</v>
+      </c>
+      <c r="T1" t="s">
+        <v>970</v>
+      </c>
+      <c r="U1" t="s">
+        <v>971</v>
+      </c>
+      <c r="V1" t="s">
+        <v>972</v>
+      </c>
+      <c r="W1" t="s">
+        <v>973</v>
+      </c>
+      <c r="X1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>975</v>
+      </c>
+      <c r="C2" t="s">
+        <v>976</v>
+      </c>
+      <c r="D2" t="s">
+        <v>977</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>978</v>
+      </c>
+      <c r="H2" t="s">
+        <v>979</v>
+      </c>
+      <c r="I2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" t="s">
+        <v>980</v>
+      </c>
+      <c r="K2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" t="s">
+        <v>981</v>
+      </c>
+      <c r="M2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" t="s">
+        <v>982</v>
+      </c>
+      <c r="O2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P2" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>983</v>
+      </c>
+      <c r="R2" t="s">
+        <v>984</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>201</v>
+      </c>
+      <c r="V2" t="s">
+        <v>126</v>
+      </c>
+      <c r="W2" t="s">
+        <v>985</v>
+      </c>
+      <c r="X2" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>987</v>
+      </c>
+      <c r="B3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C3" t="s">
+        <v>989</v>
+      </c>
+      <c r="D3" t="s">
+        <v>989</v>
+      </c>
+      <c r="E3" t="s">
+        <v>990</v>
+      </c>
+      <c r="F3" t="s">
+        <v>587</v>
+      </c>
+      <c r="G3" t="s">
+        <v>991</v>
+      </c>
+      <c r="H3" t="s">
+        <v>992</v>
+      </c>
+      <c r="I3" t="s">
+        <v>993</v>
+      </c>
+      <c r="J3" t="s">
+        <v>994</v>
+      </c>
+      <c r="K3" t="s">
+        <v>995</v>
+      </c>
+      <c r="L3" t="s">
+        <v>996</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3" t="s">
+        <v>997</v>
+      </c>
+      <c r="P3" t="s">
+        <v>998</v>
+      </c>
+      <c r="Q3"/>
+      <c r="R3" t="s">
+        <v>999</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>988</v>
+      </c>
+      <c r="C4" t="s">
+        <v>989</v>
+      </c>
+      <c r="D4" t="s">
+        <v>989</v>
+      </c>
+      <c r="E4" t="s">
+        <v>990</v>
+      </c>
+      <c r="F4" t="s">
+        <v>587</v>
+      </c>
+      <c r="G4" t="s">
+        <v>991</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I4" t="s">
+        <v>993</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B5" t="s">
+        <v>988</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F5" t="s">
+        <v>593</v>
+      </c>
+      <c r="G5" t="s">
+        <v>991</v>
+      </c>
+      <c r="H5" t="s">
+        <v>992</v>
+      </c>
+      <c r="I5" t="s">
+        <v>993</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B6" t="s">
+        <v>988</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F6" t="s">
+        <v>593</v>
+      </c>
+      <c r="G6" t="s">
+        <v>991</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I6" t="s">
+        <v>993</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B7" t="s">
+        <v>988</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F7" t="s">
+        <v>597</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H7" t="s">
+        <v>992</v>
+      </c>
+      <c r="I7" t="s">
+        <v>993</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="R7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B8" t="s">
+        <v>988</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F8" t="s">
+        <v>597</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I8" t="s">
+        <v>993</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B9" t="s">
+        <v>988</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F9" t="s">
+        <v>602</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H9" t="s">
+        <v>992</v>
+      </c>
+      <c r="I9" t="s">
+        <v>993</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B10" t="s">
+        <v>988</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F10" t="s">
+        <v>602</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I10" t="s">
+        <v>993</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B11" t="s">
+        <v>988</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F11" t="s">
+        <v>608</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H11" t="s">
+        <v>992</v>
+      </c>
+      <c r="I11" t="s">
+        <v>993</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B12" t="s">
+        <v>988</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F12" t="s">
+        <v>608</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I12" t="s">
+        <v>993</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Q12"/>
+      <c r="R12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>